--- a/Journal_Comparison_Service_Data_Collection_FOAA_v1.1.xlsx
+++ b/Journal_Comparison_Service_Data_Collection_FOAA_v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulwalk/Dropbox/Reference/_ou/cOAlition S/PSTF/journal_comparison_service_data_collection_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA35CA1-BDCC-374B-86E0-2F347FA64AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F8DB15-6A24-FD43-AF7E-6607CB2C44C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="33600" windowHeight="15640" xr2:uid="{64594A8F-0D25-2F4C-85DE-649BC0F5FC38}"/>
   </bookViews>
@@ -1042,17 +1042,24 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">This is a required field. To facilitate comparison of list prices between publishers, please tell us the subscription list price for a typical research-intensive university in the US. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <scheme val="minor"/>
           </rPr>
-          <t>This is a required field. To facilitate comparison of list prices between publishers, please tell us the subscription list price for a typical research-intensive university in the US.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
+          <t>If there is no subscription price, please enter 0.00</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1743,6 +1750,15 @@
           </rPr>
           <t xml:space="preserve"> - Scholarly societies fees
 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>If you do not pay any fees, please enter 0.00 in this field</t>
         </r>
       </text>
     </comment>
@@ -2355,7 +2371,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2447,13 +2463,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2862,9 +2871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A664604-316B-CC4E-8B2B-F0537DD1800C}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U16" sqref="U16"/>
+      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
